--- a/v1.0/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1.0/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D315134-9D2E-49E0-A8A5-EAEE05FDCDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697B5F4-19DD-4A17-AD90-FDEE92E9D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="2" r:id="rId1"/>
     <sheet name="core_connections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">core_connections!$B$2:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">core_connections!$B$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t xml:space="preserve">version </t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -684,10 +684,6 @@
     <t>pattern</t>
   </si>
   <si>
-    <t>u_cpu_hpdf</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>$$</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -696,10 +692,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>u_main_crm</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>src_port</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -713,21 +705,6 @@
   </si>
   <si>
     <t>trg_port</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-  </si>
-  <si>
-    <t>u_cpu_interrupt</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_soc_irq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_cpu_interrupt</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1068,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1210,9 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2443,10 +2417,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2464,156 +2438,109 @@
         <v>79</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="55"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
-        <v>82</v>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50" t="s">
-        <v>82</v>
-      </c>
+      <c r="A5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50" t="s">
-        <v>82</v>
-      </c>
+      <c r="A6" s="44"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>91</v>
-      </c>
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="44"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="44"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="44"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="45"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2622,13 +2549,13 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="E13:E14">
+  <conditionalFormatting sqref="E10:E11">
     <cfRule type="cellIs" dxfId="0" priority="34" operator="notEqual">
       <formula>"level-high"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A14" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
       <formula1>"p2p,p2t,tie,bus_group,pattern,alp_vip"</formula1>
     </dataValidation>
   </dataValidations>
